--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,42 +57,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>杨华邦</t>
+  </si>
+  <si>
+    <t>袁萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤维护部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤组织部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成统计信息部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤签到部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息维护部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成系统用户管理部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：文字规约的内容需要再详细一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计登录注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计加入考勤组织和签到页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计增删改查组织和增删改查考勤页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计导出考勤情况和增删改查角色页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配任务过多，下次要注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>总结：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杨华邦</t>
-  </si>
-  <si>
-    <t>袁萍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成考勤维护部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成考勤组织部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成统计信息部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成考勤签到部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成个人信息维护部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成系统用户管理部分用例规约</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.9.6 第一周 周三 上午</t>
+    <t>日期：2017.9.11 第三周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习modao软件的团队开发以及整合其他人的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进个人信息维护和导出记录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤签到界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -100,7 +172,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>设计后台架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成基本框架以及pojo类设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为其他人进度问题，尚未整合全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤签到界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进个人信息维护和导出记录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合总界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计主界面和改查个人信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：回去得继续做，进度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤组织维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤签到具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考个人信息维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进所有页面中不合理或者不够好的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出后台提供给页面交互的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试用混合式开发替换昨天相同模块的代码实现，对比两者不同以及优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,6 +308,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -136,6 +317,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -186,20 +368,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -533,37 +715,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,195 +759,606 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="83" customHeight="1">
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="84" customHeight="1">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="86" customHeight="1">
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="94" customHeight="1">
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="94" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="68" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="142" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="142" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="142" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="142" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="68" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" ht="22.5">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="22.5">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="22.5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="22.5">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="22.5">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="22.5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="22.5">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="22.5">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="22.5">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="22.5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="13">
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -281,6 +281,26 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤组织维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤签到数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计个人信息维护数据库表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1344,21 +1364,112 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
     </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="15">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,6 +301,14 @@
   </si>
   <si>
     <t>设计个人信息维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,14 +396,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -738,7 +746,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59:C64"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -750,20 +758,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -851,20 +859,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -955,20 +963,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1056,20 +1064,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1155,20 +1163,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1256,20 +1264,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1357,20 +1365,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1393,7 +1401,9 @@
       <c r="B59" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="1"/>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1403,7 +1413,9 @@
       <c r="B60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="1"/>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1413,7 +1425,9 @@
       <c r="B61" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1423,7 +1437,9 @@
       <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="1"/>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1433,7 +1449,9 @@
       <c r="B63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="1"/>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1443,18 +1461,26 @@
       <c r="B64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C64" s="1"/>
+      <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -1464,12 +1490,6 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习mybatis，做一个单表增删改查数据的Demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,14 +404,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -743,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -758,20 +766,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -859,20 +867,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -963,20 +971,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1064,20 +1072,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1163,20 +1171,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1264,20 +1272,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1365,20 +1373,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1466,21 +1474,106 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A46:D46"/>
+  <mergeCells count="17">
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -1490,6 +1583,12 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,6 +317,18 @@
   </si>
   <si>
     <t>学习mybatis，做一个单表增删改查数据的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +766,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:B72"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1510,7 +1522,9 @@
       <c r="B69" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1520,7 +1534,9 @@
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="1"/>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1530,7 +1546,9 @@
       <c r="B71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C71" s="1"/>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1540,7 +1558,9 @@
       <c r="B72" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="1"/>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1550,7 +1570,9 @@
       <c r="B73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1560,7 +1582,9 @@
       <c r="B74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -1572,6 +1596,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A1:D1"/>
@@ -1588,7 +1613,6 @@
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A46:D46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,6 +329,34 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个人信息维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤签到数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤组织维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进后台原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,10 +445,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -786,12 +814,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -879,20 +907,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -983,20 +1011,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1084,20 +1112,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1183,20 +1211,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1284,20 +1312,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1385,20 +1413,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1486,20 +1514,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1587,15 +1615,119 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A75:D75"/>
@@ -1612,7 +1744,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,14 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行小马公司给的springboot框架</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1723,14 +1731,99 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
+    <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
+  <mergeCells count="21">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -1740,6 +1833,12 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A47:D47"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,18 @@
   </si>
   <si>
     <t>运行小马公司给的springboot框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +465,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -802,7 +814,7 @@
   <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -822,12 +834,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -915,20 +927,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1019,20 +1031,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1120,20 +1132,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1219,20 +1231,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1320,20 +1332,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1421,20 +1433,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1522,20 +1534,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1623,20 +1635,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1724,20 +1736,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1760,7 +1772,9 @@
       <c r="B89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1770,7 +1784,9 @@
       <c r="B90" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1780,7 +1796,9 @@
       <c r="B91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="1"/>
+      <c r="C91" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1790,7 +1808,9 @@
       <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1800,7 +1820,9 @@
       <c r="B93" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1810,18 +1832,25 @@
       <c r="B94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
@@ -1838,11 +1867,6 @@
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,30 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查数据库文档是否有遗漏错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续了解小马公司的框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查用例规约文档是否有遗漏错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找安卓扫描二维码的实现方法并运行例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,10 +489,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -811,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -834,12 +858,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -927,20 +951,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1031,20 +1055,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1132,20 +1156,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1231,20 +1255,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1332,20 +1356,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1433,20 +1457,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1534,20 +1558,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1635,20 +1659,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1736,20 +1760,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1837,20 +1861,106 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
+  <mergeCells count="23">
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
@@ -1867,6 +1977,11 @@
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>寻找安卓扫描二维码的实现方法并运行例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +497,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,7 +846,7 @@
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -858,12 +866,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -951,20 +959,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1055,20 +1063,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1156,20 +1164,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1255,20 +1263,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1356,20 +1364,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1457,20 +1465,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1558,20 +1566,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1659,20 +1667,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1760,20 +1768,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1861,20 +1869,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -1897,7 +1905,9 @@
       <c r="B99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C99" s="1"/>
+      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1907,7 +1917,9 @@
       <c r="B100" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="1"/>
+      <c r="C100" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1917,7 +1929,9 @@
       <c r="B101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1927,7 +1941,9 @@
       <c r="B102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1937,7 +1953,9 @@
       <c r="B103" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -1947,18 +1965,27 @@
       <c r="B104" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C104" s="1"/>
+      <c r="C104" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="A87:D87"/>
@@ -1975,13 +2002,6 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找安卓扫描二维码的实现方法并运行例子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +509,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -843,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -866,12 +878,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -959,20 +971,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1063,20 +1075,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1164,20 +1176,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1263,20 +1275,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1364,20 +1376,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1465,20 +1477,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1566,20 +1578,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1667,20 +1679,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1768,20 +1780,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1869,20 +1881,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -1970,22 +1982,106 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
+  <mergeCells count="25">
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="A87:D87"/>
@@ -2002,6 +2098,13 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="102">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,6 +421,10 @@
   </si>
   <si>
     <t>寻找安卓扫描二维码的实现方法并运行例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +513,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,7 +862,7 @@
   <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -878,12 +882,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -971,20 +975,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1075,20 +1079,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1176,20 +1180,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1275,20 +1279,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1376,20 +1380,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1477,20 +1481,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1578,20 +1582,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1679,20 +1683,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1780,20 +1784,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1881,20 +1885,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -1982,20 +1986,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2018,7 +2022,9 @@
       <c r="B109" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C109" s="1"/>
+      <c r="C109" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2038,7 +2044,9 @@
       <c r="B111" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2048,7 +2056,9 @@
       <c r="B112" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="C112" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2058,7 +2068,9 @@
       <c r="B113" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C113" s="1"/>
+      <c r="C113" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2071,21 +2083,24 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2096,15 +2111,12 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="103">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,10 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.9 第七周 周一 下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2090,17 +2094,93 @@
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
     </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
+  <mergeCells count="27">
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2111,12 +2191,15 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="111">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,7 +428,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.9 第七周 周一 下午</t>
+    <t>日期：2017.10.16 第八周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个人信息维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤组织维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟万喜一起合作写考勤维护模块的持久层接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟思源一起合作写考勤组织维护模块的持久层接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：备注，查询列表的时候要记得分页查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写签到模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +549,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -865,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -886,12 +918,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -979,20 +1011,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1083,20 +1115,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1184,20 +1216,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1283,20 +1315,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1384,20 +1416,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1485,20 +1517,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1586,20 +1618,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1687,20 +1719,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1788,20 +1820,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1889,20 +1921,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -1990,20 +2022,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2087,20 +2119,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2120,56 +2152,80 @@
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
+      <c r="B120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
+      <c r="B121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="B122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
+      <c r="B123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="B124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="A125" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="113">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,14 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,10 +557,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D125"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -918,12 +926,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1011,20 +1019,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1115,20 +1123,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1216,20 +1224,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1315,20 +1323,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1416,20 +1424,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1517,20 +1525,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1618,20 +1626,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1719,20 +1727,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1820,20 +1828,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1921,20 +1929,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2022,20 +2030,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2119,20 +2127,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2220,21 +2228,111 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
+  <mergeCells count="29">
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
@@ -2251,11 +2349,12 @@
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="115">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,14 @@
   </si>
   <si>
     <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,7 +914,7 @@
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+      <selection activeCell="A135" sqref="A135:D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2264,7 +2272,9 @@
       <c r="B129" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C129" s="1"/>
+      <c r="C129" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2274,7 +2284,9 @@
       <c r="B130" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2284,7 +2296,9 @@
       <c r="B131" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C131" s="1"/>
+      <c r="C131" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2294,7 +2308,9 @@
       <c r="B132" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="1"/>
+      <c r="C132" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2304,7 +2320,9 @@
       <c r="B133" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C133" s="1"/>
+      <c r="C133" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2314,7 +2332,9 @@
       <c r="B134" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C134" s="1"/>
+      <c r="C134" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
@@ -2326,11 +2346,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A87:D87"/>
@@ -2347,14 +2370,11 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="121">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,30 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.23 第九周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建前端页面环境，按照前端原型先做一个 个人信息维护页面出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建前端页面环境，按照前端原型先做一个 考勤维护页面出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建前端页面环境，按照前端原型先做一个 考勤组织维护页面出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：备注：以后马哥和万喜负责考勤模块，思源和袁萍做考勤组织模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搭建后台环境，编写个人信息维护模块接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -565,10 +589,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135:D135"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -934,12 +958,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1027,20 +1051,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1131,20 +1155,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1232,20 +1256,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1331,20 +1355,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1432,20 +1456,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1533,20 +1557,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1634,20 +1658,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1735,20 +1759,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1836,20 +1860,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1937,20 +1961,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2038,20 +2062,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2135,20 +2159,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2236,20 +2260,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2337,15 +2361,121 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A138" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A145" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="31">
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A117:D117"/>
@@ -2358,23 +2488,8 @@
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="123">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,6 +501,14 @@
   </si>
   <si>
     <t>搭建后台环境，编写个人信息维护模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +597,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,7 +946,7 @@
   <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -958,12 +966,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1051,20 +1059,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1155,20 +1163,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1256,20 +1264,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1355,20 +1363,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1456,20 +1464,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1557,20 +1565,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1658,20 +1666,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1759,20 +1767,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1860,20 +1868,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -1961,20 +1969,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2062,20 +2070,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2159,20 +2167,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2260,20 +2268,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2361,20 +2369,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2397,7 +2405,9 @@
       <c r="B139" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C139" s="1"/>
+      <c r="C139" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2407,7 +2417,9 @@
       <c r="B140" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="1"/>
+      <c r="C140" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2417,7 +2429,9 @@
       <c r="B141" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C141" s="1"/>
+      <c r="C141" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2427,7 +2441,9 @@
       <c r="B142" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C142" s="1"/>
+      <c r="C142" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2437,7 +2453,9 @@
       <c r="B143" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C143" s="1"/>
+      <c r="C143" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2447,23 +2465,31 @@
       <c r="B144" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C144" s="1"/>
+      <c r="C144" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A1:D1"/>
@@ -2477,19 +2503,13 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,18 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.24 第九周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照昨天的分配，继续完成自己模块的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写个人信息维护模块接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2477,19 +2489,104 @@
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
     </row>
+    <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A148" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A155" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
+  <mergeCells count="33">
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A1:D1"/>
@@ -2505,11 +2602,17 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="128">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -521,6 +521,14 @@
   </si>
   <si>
     <t>编写个人信息维护模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2518,7 +2526,9 @@
       <c r="B149" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2528,7 +2538,9 @@
       <c r="B150" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C150" s="1"/>
+      <c r="C150" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2538,7 +2550,9 @@
       <c r="B151" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2548,7 +2562,9 @@
       <c r="B152" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C152" s="1"/>
+      <c r="C152" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2558,7 +2574,9 @@
       <c r="B153" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C153" s="1"/>
+      <c r="C153" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2568,7 +2586,9 @@
       <c r="B154" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C154" s="1"/>
+      <c r="C154" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
@@ -2578,14 +2598,110 @@
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
     </row>
+    <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A165" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
+  <mergeCells count="35">
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A65:D65"/>
@@ -2602,17 +2718,12 @@
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11850" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="132">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,6 +525,22 @@
   </si>
   <si>
     <t>日期：2017.10.25 第九周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.25 第九周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成签到模块的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -963,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2627,7 +2643,9 @@
       <c r="B159" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C159" s="1"/>
+      <c r="C159" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2637,7 +2655,9 @@
       <c r="B160" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C160" s="1"/>
+      <c r="C160" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2647,7 +2667,9 @@
       <c r="B161" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C161" s="1"/>
+      <c r="C161" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2657,7 +2679,9 @@
       <c r="B162" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C162" s="1"/>
+      <c r="C162" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2667,7 +2691,9 @@
       <c r="B163" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C163" s="1"/>
+      <c r="C163" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2677,7 +2703,9 @@
       <c r="B164" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C164" s="1"/>
+      <c r="C164" s="1" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
@@ -2687,8 +2715,116 @@
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
     </row>
+    <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A168" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A175" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
     <mergeCell ref="A157:D157"/>
     <mergeCell ref="A165:D165"/>
     <mergeCell ref="A67:D67"/>
@@ -2702,9 +2838,6 @@
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
@@ -2715,15 +2848,13 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
     <mergeCell ref="A137:D137"/>
     <mergeCell ref="A145:D145"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11850" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="141">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -545,6 +545,42 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.230 第十周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写考勤组织维护模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成签到模块的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度略慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度略慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2816,8 +2852,131 @@
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
     </row>
+    <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A178" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="39">
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A147:D147"/>
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A167:D167"/>
@@ -2834,27 +2993,6 @@
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A75:D75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="143">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,11 +576,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进度略慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度略慢</t>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度过慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1017,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="D180" sqref="D180:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -2817,7 +2825,7 @@
         <v>124</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D172" s="1"/>
     </row>
@@ -2881,7 +2889,9 @@
       <c r="B179" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C179" s="1"/>
+      <c r="C179" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2891,9 +2901,11 @@
       <c r="B180" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C180" s="1"/>
+      <c r="C180" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D180" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2903,9 +2915,11 @@
       <c r="B181" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C181" s="1"/>
+      <c r="C181" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D181" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2915,9 +2929,11 @@
       <c r="B182" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C182" s="1"/>
+      <c r="C182" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D182" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2927,9 +2943,11 @@
       <c r="B183" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C183" s="1"/>
+      <c r="C183" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D183" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2939,9 +2957,11 @@
       <c r="B184" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="1"/>
+      <c r="C184" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D184" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -2954,33 +2974,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -2993,6 +2986,33 @@
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A97:D97"/>
     <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,6 +589,18 @@
   </si>
   <si>
     <t>进度过慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.230 第十周 周二 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成签到模块的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -677,10 +689,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1023,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="D180" sqref="D180:D184"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1046,12 +1058,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1139,20 +1151,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1243,20 +1255,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1344,20 +1356,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1443,20 +1455,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1544,20 +1556,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1645,20 +1657,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1746,20 +1758,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1847,20 +1859,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1948,20 +1960,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2049,20 +2061,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2150,20 +2162,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2247,20 +2259,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2348,20 +2360,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2449,20 +2461,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2550,20 +2562,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2651,20 +2663,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2752,20 +2764,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2853,20 +2865,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -2965,41 +2977,109 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A195" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
+  <mergeCells count="41">
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
@@ -3013,6 +3093,32 @@
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="148">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -601,6 +601,14 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -689,10 +697,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1058,12 +1066,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1151,20 +1159,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1255,20 +1263,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1356,20 +1364,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1455,20 +1463,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1556,20 +1564,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1657,20 +1665,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1758,20 +1766,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1859,20 +1867,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1960,20 +1968,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2061,20 +2069,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2162,20 +2170,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2259,20 +2267,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2360,20 +2368,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2461,20 +2469,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2562,20 +2570,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2663,20 +2671,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2764,20 +2772,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2865,20 +2873,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -2977,20 +2985,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3025,7 +3033,9 @@
       <c r="B190" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C190" s="1"/>
+      <c r="C190" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3035,7 +3045,9 @@
       <c r="B191" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C191" s="1"/>
+      <c r="C191" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3045,7 +3057,9 @@
       <c r="B192" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C192" s="1"/>
+      <c r="C192" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3055,7 +3069,9 @@
       <c r="B193" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C193" s="1"/>
+      <c r="C193" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3065,44 +3081,21 @@
       <c r="B194" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C194" s="1"/>
+      <c r="C194" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3119,6 +3112,31 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="150">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -548,10 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.230 第十周 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编写考勤组织维护模块接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,14 +588,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.10.230 第十周 周二 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成签到模块的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -609,6 +597,26 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户与考勤组织之间CRUD的模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：备注：下周二之前页面得写完，先填充模拟数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,10 +705,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A205" sqref="A205:D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1066,12 +1074,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1159,20 +1167,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1263,20 +1271,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1364,20 +1372,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1463,20 +1471,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1564,20 +1572,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1665,20 +1673,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1766,20 +1774,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1867,20 +1875,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1968,20 +1976,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2069,20 +2077,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2170,20 +2178,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2267,20 +2275,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2368,20 +2376,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2469,20 +2477,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2570,20 +2578,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2671,20 +2679,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2772,20 +2780,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2845,7 +2853,7 @@
         <v>124</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D172" s="1"/>
     </row>
@@ -2873,20 +2881,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="A177" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -2907,10 +2915,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -2919,13 +2927,13 @@
         <v>6</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2933,13 +2941,13 @@
         <v>7</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2947,13 +2955,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2961,13 +2969,13 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2975,30 +2983,30 @@
         <v>10</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="A187" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3018,11 +3026,9 @@
       <c r="A189" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D189" s="1"/>
     </row>
@@ -3031,10 +3037,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D190" s="1"/>
     </row>
@@ -3043,10 +3049,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D191" s="1"/>
     </row>
@@ -3055,10 +3061,10 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D192" s="1"/>
     </row>
@@ -3067,10 +3073,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D193" s="1"/>
     </row>
@@ -3079,23 +3085,138 @@
         <v>10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A198" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A205" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3112,31 +3233,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11850" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>总结：备注：下周二之前页面得写完，先填充模拟数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +717,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,7 +1066,7 @@
   <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:D205"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1074,12 +1086,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1167,20 +1179,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1271,20 +1283,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1372,20 +1384,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1471,20 +1483,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1572,20 +1584,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1673,20 +1685,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1774,20 +1786,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1875,20 +1887,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -1976,20 +1988,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2077,20 +2089,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2178,20 +2190,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2275,20 +2287,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2376,20 +2388,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2477,20 +2489,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2578,20 +2590,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2679,20 +2691,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2780,20 +2792,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2881,20 +2893,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -2993,20 +3005,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3093,20 +3105,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3127,7 +3139,9 @@
         <v>5</v>
       </c>
       <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
+      <c r="C199" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3137,7 +3151,9 @@
       <c r="B200" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3147,7 +3163,9 @@
       <c r="B201" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3175,9 @@
       <c r="B202" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C202" s="1"/>
+      <c r="C202" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3167,7 +3187,9 @@
       <c r="B203" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C203" s="1"/>
+      <c r="C203" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3177,46 +3199,21 @@
       <c r="B204" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C204" s="1"/>
+      <c r="C204" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3233,6 +3230,33 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="157">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -621,6 +621,22 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户与考勤之间CRUD的模块接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1063,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3212,8 +3228,108 @@
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
     </row>
+    <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A208" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A215" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3240,6 +3356,7 @@
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
     <mergeCell ref="A177:D177"/>
@@ -3252,11 +3369,12 @@
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
     <mergeCell ref="A197:D197"/>
     <mergeCell ref="A205:D205"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="162">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,15 +540,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写考勤组织维护模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成签到模块的页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>继续完成考勤维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编写考勤组织维护模块接口</t>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度过慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.30 第十周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.31 第十周 周二 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户与考勤组织之间CRUD的模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：备注：下周二之前页面得写完，先填充模拟数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.1 第十周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写用户与考勤之间CRUD的模块接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.6 第十一周 周一 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写自动扫描考勤计划功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -556,95 +664,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续完成考勤维护页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完成考勤维护页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续完成考勤组织维护页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度过慢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.10.30 第十周 周一 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.10.31 第十周 周二 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.11.1 第十周 周三 上午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用户与考勤组织之间CRUD的模块接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总结：备注：下周二之前页面得写完，先填充模拟数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请假</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期：2017.11.1 第十周 周三 下午</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写用户与考勤之间CRUD的模块接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>编写主界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,10 +753,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="C214" sqref="C214"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1102,12 +1122,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1195,20 +1215,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1299,20 +1319,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1400,20 +1420,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1499,20 +1519,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1600,20 +1620,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1701,20 +1721,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1802,20 +1822,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1903,20 +1923,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2004,20 +2024,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2105,20 +2125,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2206,20 +2226,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2303,20 +2323,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2404,20 +2424,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2505,20 +2525,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2606,20 +2626,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2707,20 +2727,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2792,7 +2812,7 @@
         <v>125</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D163" s="1"/>
     </row>
@@ -2808,20 +2828,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2842,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>128</v>
@@ -2881,7 +2901,7 @@
         <v>124</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D172" s="1"/>
     </row>
@@ -2909,20 +2929,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="A177" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -2943,10 +2963,10 @@
         <v>5</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D179" s="1"/>
     </row>
@@ -2955,13 +2975,13 @@
         <v>6</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2969,13 +2989,13 @@
         <v>7</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2983,13 +3003,13 @@
         <v>8</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -2997,13 +3017,13 @@
         <v>9</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3011,30 +3031,30 @@
         <v>10</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A185" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="A187" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3056,7 +3076,7 @@
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D189" s="1"/>
     </row>
@@ -3065,10 +3085,10 @@
         <v>6</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D190" s="1"/>
     </row>
@@ -3077,10 +3097,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D191" s="1"/>
     </row>
@@ -3089,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D192" s="1"/>
     </row>
@@ -3101,10 +3121,10 @@
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D193" s="1"/>
     </row>
@@ -3113,28 +3133,28 @@
         <v>10</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
+      <c r="A197" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3156,7 +3176,7 @@
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D199" s="1"/>
     </row>
@@ -3165,10 +3185,10 @@
         <v>6</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D200" s="1"/>
     </row>
@@ -3177,10 +3197,10 @@
         <v>7</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D201" s="1"/>
     </row>
@@ -3189,10 +3209,10 @@
         <v>8</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D202" s="1"/>
     </row>
@@ -3201,10 +3221,10 @@
         <v>9</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D203" s="1"/>
     </row>
@@ -3213,28 +3233,28 @@
         <v>10</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="A205" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
+      <c r="A207" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3265,10 +3285,10 @@
         <v>6</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D210" s="1"/>
     </row>
@@ -3277,10 +3297,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D211" s="1"/>
     </row>
@@ -3289,10 +3309,10 @@
         <v>8</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D212" s="1"/>
     </row>
@@ -3301,10 +3321,10 @@
         <v>9</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D213" s="1"/>
     </row>
@@ -3313,23 +3333,144 @@
         <v>10</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+    </row>
+    <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A218" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A225" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="47">
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3346,35 +3487,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>编写主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -753,10 +757,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,8 +1105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="D221" sqref="D221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1122,12 +1126,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1215,20 +1219,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1319,20 +1323,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1420,20 +1424,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1519,20 +1523,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1620,20 +1624,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1721,20 +1725,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1822,20 +1826,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1923,20 +1927,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2024,20 +2028,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2125,20 +2129,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2226,20 +2230,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2323,20 +2327,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2424,20 +2428,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2525,20 +2529,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2626,20 +2630,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2727,20 +2731,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2828,20 +2832,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2929,20 +2933,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3041,20 +3045,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3141,20 +3145,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3241,20 +3245,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3341,20 +3345,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3377,7 +3381,9 @@
       <c r="B219" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3387,7 +3393,9 @@
       <c r="B220" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C220" s="1"/>
+      <c r="C220" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3397,7 +3405,9 @@
       <c r="B221" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C221" s="1"/>
+      <c r="C221" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3407,7 +3417,9 @@
       <c r="B222" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C222" s="1"/>
+      <c r="C222" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3417,7 +3429,9 @@
       <c r="B223" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C223" s="1"/>
+      <c r="C223" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3427,50 +3441,21 @@
       <c r="B224" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C224" s="1"/>
+      <c r="C224" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3487,6 +3472,37 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="165">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -669,6 +669,14 @@
   </si>
   <si>
     <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.8 第十一周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写二维码对接功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -757,10 +765,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1103,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D225"/>
+  <dimension ref="A1:D235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="D221" sqref="D221"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1126,12 +1134,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1219,20 +1227,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1323,20 +1331,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1424,20 +1432,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1523,20 +1531,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1624,20 +1632,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1725,20 +1733,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1826,20 +1834,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1927,20 +1935,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2028,20 +2036,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2129,20 +2137,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2230,20 +2238,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2327,20 +2335,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2428,20 +2436,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2529,20 +2537,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2630,20 +2638,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2731,20 +2739,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2832,20 +2840,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2933,20 +2941,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3045,20 +3053,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3145,20 +3153,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3245,20 +3253,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3345,20 +3353,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3447,15 +3455,138 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+    </row>
+    <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A228" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+    </row>
+    <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+    </row>
+    <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A235" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3472,37 +3603,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="167">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,6 +677,14 @@
   </si>
   <si>
     <t>编写二维码对接功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：界面基本完成，接下来要进行数据的对接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +773,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1114,7 +1122,7 @@
   <dimension ref="A1:D235"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+      <selection activeCell="A235" sqref="A235:D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1134,12 +1142,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1227,20 +1235,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1331,20 +1339,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1432,20 +1440,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1531,20 +1539,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1632,20 +1640,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1733,20 +1741,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1834,20 +1842,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1935,20 +1943,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2036,20 +2044,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2137,20 +2145,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2238,20 +2246,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2335,20 +2343,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2436,20 +2444,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2537,20 +2545,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2638,20 +2646,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2739,20 +2747,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2840,20 +2848,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2941,20 +2949,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3053,20 +3061,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3153,20 +3161,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3253,20 +3261,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3353,20 +3361,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3455,20 +3463,20 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -3491,7 +3499,9 @@
       <c r="B229" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C229" s="1"/>
+      <c r="C229" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3501,7 +3511,9 @@
       <c r="B230" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C230" s="1"/>
+      <c r="C230" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3511,7 +3523,9 @@
       <c r="B231" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C231" s="1"/>
+      <c r="C231" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3521,7 +3535,9 @@
       <c r="B232" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C232" s="1"/>
+      <c r="C232" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3531,7 +3547,9 @@
       <c r="B233" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C233" s="1"/>
+      <c r="C233" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3541,52 +3559,21 @@
       <c r="B234" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C234" s="1"/>
+      <c r="C234" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="A235" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3603,6 +3590,39 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,6 +685,30 @@
   </si>
   <si>
     <t>总结：界面基本完成，接下来要进行数据的对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.13 第十二周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行个人信息维护界面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤维护页面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤组织维护页面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供数据对接帮助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,10 +797,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1119,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:D235"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B243" sqref="B243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1142,12 +1166,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1235,20 +1259,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1339,20 +1363,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1440,20 +1464,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1539,20 +1563,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1640,20 +1664,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1741,20 +1765,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1842,20 +1866,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1943,20 +1967,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2044,20 +2068,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2145,20 +2169,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2246,20 +2270,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2343,20 +2367,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2444,20 +2468,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2545,20 +2569,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2646,20 +2670,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2747,20 +2771,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2848,20 +2872,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2949,20 +2973,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3061,20 +3085,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3161,20 +3185,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3261,20 +3285,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3361,20 +3385,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3463,20 +3487,20 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -3548,7 +3572,7 @@
         <v>164</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D233" s="1"/>
     </row>
@@ -3565,15 +3589,140 @@
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+    </row>
+    <row r="240" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+    </row>
+    <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+    </row>
+    <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+    </row>
+    <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+    </row>
+    <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+    </row>
+    <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A245" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="51">
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3590,39 +3739,6 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="176">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -709,6 +709,18 @@
   </si>
   <si>
     <t>提供数据对接帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.15 第十二周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息维护界面的前后台数据对接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,10 +809,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1143,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="B243" sqref="B243"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="B249" sqref="B249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1166,12 +1178,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1259,20 +1271,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1363,20 +1375,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1464,20 +1476,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1563,20 +1575,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1664,20 +1676,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1765,20 +1777,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1866,20 +1878,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1967,20 +1979,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2068,20 +2080,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2169,20 +2181,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2270,20 +2282,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2367,20 +2379,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2468,20 +2480,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2569,20 +2581,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2670,20 +2682,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2771,20 +2783,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2872,20 +2884,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -2973,20 +2985,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3085,20 +3097,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3185,20 +3197,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3285,20 +3297,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3385,20 +3397,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3487,20 +3499,20 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -3589,20 +3601,20 @@
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
@@ -3625,7 +3637,9 @@
       <c r="B239" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C239" s="1"/>
+      <c r="C239" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D239" s="1"/>
     </row>
     <row r="240" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3635,7 +3649,9 @@
       <c r="B240" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C240" s="1"/>
+      <c r="C240" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3645,7 +3661,9 @@
       <c r="B241" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C241" s="1"/>
+      <c r="C241" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3655,7 +3673,9 @@
       <c r="B242" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C242" s="1"/>
+      <c r="C242" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D242" s="1"/>
     </row>
     <row r="243" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3665,7 +3685,9 @@
       <c r="B243" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C243" s="1"/>
+      <c r="C243" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D243" s="1"/>
     </row>
     <row r="244" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3675,54 +3697,113 @@
       <c r="B244" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C244" s="1"/>
+      <c r="C244" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+    </row>
+    <row r="247" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A248" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+    </row>
+    <row r="250" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+    </row>
+    <row r="251" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+    </row>
+    <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+    </row>
+    <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+    </row>
+    <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+    </row>
+    <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A255" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
+  <mergeCells count="53">
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A255:D255"/>
     <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
@@ -3739,6 +3820,41 @@
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="181">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -721,6 +721,26 @@
   </si>
   <si>
     <t>完成个人信息维护界面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.20 第十三周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成个人信息维护界面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤维护页面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续完成考勤组织维护页面的前后台数据对接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1155,10 +1175,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="B249" sqref="B249"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="B264" sqref="B264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3704,7 +3724,7 @@
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A245" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -3739,7 +3759,9 @@
       <c r="B249" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C249" s="1"/>
+      <c r="C249" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3749,7 +3771,9 @@
       <c r="B250" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C250" s="1"/>
+      <c r="C250" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D250" s="1"/>
     </row>
     <row r="251" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3759,7 +3783,9 @@
       <c r="B251" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C251" s="1"/>
+      <c r="C251" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3769,7 +3795,9 @@
       <c r="B252" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C252" s="1"/>
+      <c r="C252" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D252" s="1"/>
     </row>
     <row r="253" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3779,7 +3807,9 @@
       <c r="B253" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C253" s="1"/>
+      <c r="C253" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D253" s="1"/>
     </row>
     <row r="254" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3789,19 +3819,150 @@
       <c r="B254" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C254" s="1"/>
+      <c r="C254" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A255" s="4" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
     </row>
+    <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A258" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+    </row>
+    <row r="260" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+    </row>
+    <row r="261" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+    </row>
+    <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+    </row>
+    <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+    </row>
+    <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+    </row>
+    <row r="265" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A265" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="55">
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A247:D247"/>
     <mergeCell ref="A255:D255"/>
     <mergeCell ref="A46:D46"/>
@@ -3818,43 +3979,6 @@
     <mergeCell ref="A105:D105"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="181">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:D265"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="B264" sqref="B264"/>
+      <selection activeCell="C259" sqref="C259:C264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3861,7 +3861,9 @@
       <c r="B259" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C259" s="1"/>
+      <c r="C259" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D259" s="1"/>
     </row>
     <row r="260" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3871,7 +3873,9 @@
       <c r="B260" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C260" s="1"/>
+      <c r="C260" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D260" s="1"/>
     </row>
     <row r="261" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3881,7 +3885,9 @@
       <c r="B261" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C261" s="1"/>
+      <c r="C261" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D261" s="1"/>
     </row>
     <row r="262" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3891,7 +3897,9 @@
       <c r="B262" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C262" s="1"/>
+      <c r="C262" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D262" s="1"/>
     </row>
     <row r="263" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3901,7 +3909,9 @@
       <c r="B263" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C263" s="1"/>
+      <c r="C263" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D263" s="1"/>
     </row>
     <row r="264" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3911,7 +3921,9 @@
       <c r="B264" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C264" s="1"/>
+      <c r="C264" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -3924,18 +3936,31 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A57:D57"/>
     <mergeCell ref="A187:D187"/>
     <mergeCell ref="A195:D195"/>
     <mergeCell ref="A95:D95"/>
@@ -3951,34 +3976,21 @@
     <mergeCell ref="A155:D155"/>
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
     <mergeCell ref="A247:D247"/>
     <mergeCell ref="A255:D255"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="182">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -741,6 +741,10 @@
   </si>
   <si>
     <t>继续完成考勤组织维护页面的前后台数据对接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.22 第十三周 周三 上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +833,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D265"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C259" sqref="C259:C264"/>
+    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269:C274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1198,12 +1202,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1291,20 +1295,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1395,20 +1399,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1496,20 +1500,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1595,20 +1599,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1696,20 +1700,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1797,20 +1801,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1898,20 +1902,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -1999,20 +2003,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2100,20 +2104,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2201,20 +2205,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2302,20 +2306,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2399,20 +2403,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2500,20 +2504,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2601,20 +2605,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="4" t="s">
+      <c r="A135" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2702,20 +2706,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2803,20 +2807,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2904,20 +2908,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -3005,20 +3009,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="3"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3117,20 +3121,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3217,20 +3221,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3317,20 +3321,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="3" t="s">
+      <c r="A207" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3417,20 +3421,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="4" t="s">
+      <c r="A215" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
+      <c r="A217" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3519,20 +3523,20 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="4" t="s">
+      <c r="A225" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="3" t="s">
+      <c r="A227" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B227" s="3"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -3621,20 +3625,20 @@
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="3" t="s">
+      <c r="A237" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B237" s="3"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
     </row>
     <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
@@ -3723,20 +3727,20 @@
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
     </row>
     <row r="247" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="3" t="s">
+      <c r="A247" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="3"/>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
@@ -3825,20 +3829,20 @@
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A255" s="4" t="s">
+      <c r="A255" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
     </row>
     <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="3" t="s">
+      <c r="A257" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
     </row>
     <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
@@ -3927,41 +3931,121 @@
       <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A265" s="4" t="s">
+      <c r="A265" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="267" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A268" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+    </row>
+    <row r="270" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+    </row>
+    <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+    </row>
+    <row r="272" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+    </row>
+    <row r="273" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+    </row>
+    <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+    </row>
+    <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A275" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A187:D187"/>
+  <mergeCells count="57">
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
     <mergeCell ref="A195:D195"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A77:D77"/>
@@ -3977,20 +4061,32 @@
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="A175:D175"/>
     <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="183">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -745,6 +745,10 @@
   </si>
   <si>
     <t>日期：2017.11.22 第十三周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.11.27 第十四周 周一 下午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -833,10 +837,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1179,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A254" workbookViewId="0">
-      <selection activeCell="C269" sqref="C269:C274"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279:C284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1202,12 +1206,12 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -1295,20 +1299,20 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
@@ -1399,20 +1403,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
@@ -1500,20 +1504,20 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
@@ -1599,20 +1603,20 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
@@ -1700,20 +1704,20 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
@@ -1801,20 +1805,20 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
@@ -1902,20 +1906,20 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
@@ -2003,20 +2007,20 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -2104,20 +2108,20 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
     </row>
     <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
@@ -2205,20 +2209,20 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A95" s="3" t="s">
+      <c r="A95" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
@@ -2306,20 +2310,20 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
@@ -2403,20 +2407,20 @@
       <c r="C114" s="1"/>
     </row>
     <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
     </row>
     <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
     </row>
     <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
@@ -2504,20 +2508,20 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
     </row>
     <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
     </row>
     <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
@@ -2605,20 +2609,20 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
     <row r="137" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="A137" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
@@ -2706,20 +2710,20 @@
       </c>
     </row>
     <row r="145" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A145" s="3" t="s">
+      <c r="A145" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
     </row>
     <row r="147" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
     </row>
     <row r="148" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
@@ -2807,20 +2811,20 @@
       </c>
     </row>
     <row r="155" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A155" s="3" t="s">
+      <c r="A155" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
     </row>
     <row r="157" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
     </row>
     <row r="158" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
@@ -2908,20 +2912,20 @@
       </c>
     </row>
     <row r="165" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
+      <c r="A165" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
     </row>
     <row r="167" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
     </row>
     <row r="168" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
@@ -3009,20 +3013,20 @@
       </c>
     </row>
     <row r="175" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A175" s="3" t="s">
+      <c r="A175" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B175" s="3"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
     </row>
     <row r="177" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
     </row>
     <row r="178" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
@@ -3121,20 +3125,20 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A185" s="3" t="s">
+      <c r="A185" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
     </row>
     <row r="187" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="A187" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
     </row>
     <row r="188" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
@@ -3221,20 +3225,20 @@
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A195" s="3" t="s">
+      <c r="A195" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B195" s="3"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="197" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="A197" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
     </row>
     <row r="198" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
@@ -3321,20 +3325,20 @@
       <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A205" s="3" t="s">
+      <c r="A205" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
     </row>
     <row r="207" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
@@ -3421,20 +3425,20 @@
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A215" s="3" t="s">
+      <c r="A215" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
     </row>
     <row r="217" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3"/>
     </row>
     <row r="218" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
@@ -3523,20 +3527,20 @@
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A225" s="3" t="s">
+      <c r="A225" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B225" s="3"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+      <c r="D225" s="4"/>
     </row>
     <row r="227" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
     </row>
     <row r="228" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
@@ -3625,20 +3629,20 @@
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A235" s="3" t="s">
+      <c r="A235" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
     </row>
     <row r="237" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
@@ -3727,20 +3731,20 @@
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A245" s="3" t="s">
+      <c r="A245" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B245" s="3"/>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
     </row>
     <row r="247" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A247" s="4" t="s">
+      <c r="A247" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
     </row>
     <row r="248" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
@@ -3829,20 +3833,20 @@
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A255" s="3" t="s">
+      <c r="A255" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
     </row>
     <row r="257" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="4" t="s">
+      <c r="A257" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
     </row>
     <row r="258" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
@@ -3931,20 +3935,20 @@
       <c r="D264" s="1"/>
     </row>
     <row r="265" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A265" s="3" t="s">
+      <c r="A265" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B265" s="3"/>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
     </row>
     <row r="267" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A267" s="4" t="s">
+      <c r="A267" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
     </row>
     <row r="268" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
@@ -4021,32 +4025,133 @@
       <c r="D274" s="1"/>
     </row>
     <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A275" s="3" t="s">
+      <c r="A275" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B275" s="3"/>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+      <c r="D275" s="4"/>
+    </row>
+    <row r="277" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+    </row>
+    <row r="278" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A278" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+    </row>
+    <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+    </row>
+    <row r="281" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+    </row>
+    <row r="282" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+    </row>
+    <row r="283" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+    </row>
+    <row r="284" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+    </row>
+    <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A285" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B285" s="4"/>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A275:D275"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A255:D255"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A195:D195"/>
+  <mergeCells count="59">
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A285:D285"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A95:D95"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A85:D85"/>
@@ -4061,32 +4166,23 @@
     <mergeCell ref="A167:D167"/>
     <mergeCell ref="A175:D175"/>
     <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/第一组（小马）/小组计划实施表.xlsx
+++ b/第一组（小马）/小组计划实施表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="186">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -749,6 +749,18 @@
   </si>
   <si>
     <t>日期：2017.11.27 第十四周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.4 第十五周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.12.6 第十五周 周三 上午</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1183,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D285"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279:C284"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297:D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -3971,7 +3983,9 @@
       <c r="B269" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C269" s="1"/>
+      <c r="C269" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D269" s="1"/>
     </row>
     <row r="270" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3981,7 +3995,9 @@
       <c r="B270" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C270" s="1"/>
+      <c r="C270" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D270" s="1"/>
     </row>
     <row r="271" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -3991,7 +4007,9 @@
       <c r="B271" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C271" s="1"/>
+      <c r="C271" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D271" s="1"/>
     </row>
     <row r="272" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4001,7 +4019,9 @@
       <c r="B272" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C272" s="1"/>
+      <c r="C272" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D272" s="1"/>
     </row>
     <row r="273" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4011,7 +4031,9 @@
       <c r="B273" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C273" s="1"/>
+      <c r="C273" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D273" s="1"/>
     </row>
     <row r="274" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4021,7 +4043,9 @@
       <c r="B274" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C274" s="1"/>
+      <c r="C274" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D274" s="1"/>
     </row>
     <row r="275" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
@@ -4061,7 +4085,9 @@
       <c r="B279" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C279" s="1"/>
+      <c r="C279" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D279" s="1"/>
     </row>
     <row r="280" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4071,7 +4097,9 @@
       <c r="B280" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C280" s="1"/>
+      <c r="C280" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D280" s="1"/>
     </row>
     <row r="281" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4081,7 +4109,9 @@
       <c r="B281" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C281" s="1"/>
+      <c r="C281" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D281" s="1"/>
     </row>
     <row r="282" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4091,7 +4121,9 @@
       <c r="B282" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C282" s="1"/>
+      <c r="C282" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D282" s="1"/>
     </row>
     <row r="283" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4101,7 +4133,9 @@
       <c r="B283" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C283" s="1"/>
+      <c r="C283" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D283" s="1"/>
     </row>
     <row r="284" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -4111,19 +4145,272 @@
       <c r="B284" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C284" s="1"/>
+      <c r="C284" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D284" s="1"/>
     </row>
     <row r="285" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A285" s="4" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
     </row>
+    <row r="287" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="3"/>
+    </row>
+    <row r="288" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A288" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D289" s="1"/>
+    </row>
+    <row r="290" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D290" s="1"/>
+    </row>
+    <row r="291" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D291" s="1"/>
+    </row>
+    <row r="292" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D292" s="1"/>
+    </row>
+    <row r="293" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D293" s="1"/>
+    </row>
+    <row r="294" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D294" s="1"/>
+    </row>
+    <row r="295" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A295" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B295" s="4"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+    </row>
+    <row r="297" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3"/>
+    </row>
+    <row r="298" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A298" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D300" s="1"/>
+    </row>
+    <row r="301" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D301" s="1"/>
+    </row>
+    <row r="302" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D302" s="1"/>
+    </row>
+    <row r="303" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D303" s="1"/>
+    </row>
+    <row r="304" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D304" s="1"/>
+    </row>
+    <row r="305" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A305" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B305" s="4"/>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="63">
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A295:D295"/>
+    <mergeCell ref="A297:D297"/>
+    <mergeCell ref="A305:D305"/>
+    <mergeCell ref="A267:D267"/>
+    <mergeCell ref="A275:D275"/>
+    <mergeCell ref="A257:D257"/>
+    <mergeCell ref="A265:D265"/>
+    <mergeCell ref="A237:D237"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A235:D235"/>
+    <mergeCell ref="A247:D247"/>
+    <mergeCell ref="A255:D255"/>
+    <mergeCell ref="A217:D217"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A197:D197"/>
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="A195:D195"/>
+    <mergeCell ref="A185:D185"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="A155:D155"/>
+    <mergeCell ref="A167:D167"/>
+    <mergeCell ref="A175:D175"/>
+    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A177:D177"/>
     <mergeCell ref="A277:D277"/>
     <mergeCell ref="A285:D285"/>
     <mergeCell ref="A1:D1"/>
@@ -4140,49 +4427,6 @@
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="A55:D55"/>
     <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="A185:D185"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A167:D167"/>
-    <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A197:D197"/>
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="A195:D195"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A235:D235"/>
-    <mergeCell ref="A247:D247"/>
-    <mergeCell ref="A255:D255"/>
-    <mergeCell ref="A217:D217"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A267:D267"/>
-    <mergeCell ref="A275:D275"/>
-    <mergeCell ref="A257:D257"/>
-    <mergeCell ref="A265:D265"/>
-    <mergeCell ref="A237:D237"/>
-    <mergeCell ref="A245:D245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
